--- a/results_folder/SumsAndAverages_from_python.xlsx
+++ b/results_folder/SumsAndAverages_from_python.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD56"/>
+  <dimension ref="A1:BD61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +427,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Averages Set output from simple python script well_tops.py on 2023-06-11T16:28:43.635922</t>
+          <t>Averages Set output from blixt_rp python library on 2023-06-17T15:03:30.168244</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="BD22" s="1" t="n">
-        <v>45088.68661614498</v>
+        <v>45094.62743249094</v>
       </c>
     </row>
     <row r="23">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="BD23" s="1" t="n">
-        <v>45088.68661673837</v>
+        <v>45094.6274326644</v>
       </c>
     </row>
     <row r="24">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="BD24" s="1" t="n">
-        <v>45088.68661693428</v>
+        <v>45094.62743286064</v>
       </c>
     </row>
     <row r="25">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="BD25" s="1" t="n">
-        <v>45088.68661715361</v>
+        <v>45094.62743307996</v>
       </c>
     </row>
     <row r="26">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="BD26" s="1" t="n">
-        <v>45088.68661740755</v>
+        <v>45094.62743329897</v>
       </c>
     </row>
     <row r="27">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="BD27" s="1" t="n">
-        <v>45088.68661900346</v>
+        <v>45094.62743473646</v>
       </c>
     </row>
     <row r="28">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="BD28" s="1" t="n">
-        <v>45088.68661925737</v>
+        <v>45094.62743497888</v>
       </c>
     </row>
     <row r="29">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="BD29" s="1" t="n">
-        <v>45088.68661952296</v>
+        <v>45094.6274352559</v>
       </c>
     </row>
     <row r="30">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="BD30" s="1" t="n">
-        <v>45088.68662003143</v>
+        <v>45094.62743552139</v>
       </c>
     </row>
     <row r="31">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="BD31" s="1" t="n">
-        <v>45088.68662030849</v>
+        <v>45094.62743579843</v>
       </c>
     </row>
     <row r="32">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="BD32" s="1" t="n">
-        <v>45088.68662179625</v>
+        <v>45094.62743731824</v>
       </c>
     </row>
     <row r="33">
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="BD33" s="1" t="n">
-        <v>45088.68662209605</v>
+        <v>45094.6274376299</v>
       </c>
     </row>
     <row r="34">
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="BD34" s="1" t="n">
-        <v>45088.68662241925</v>
+        <v>45094.62743794156</v>
       </c>
     </row>
     <row r="35">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="BD35" s="1" t="n">
-        <v>45088.68662274277</v>
+        <v>45094.62743827674</v>
       </c>
     </row>
     <row r="36">
@@ -3546,13 +3546,13 @@
         </is>
       </c>
       <c r="BD36" s="1" t="n">
-        <v>45088.68662366624</v>
+        <v>45094.62743862309</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sand D_sand</t>
+          <t>Sand D_gas_sand</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3575,31 +3575,31 @@
         <v>-999.25</v>
       </c>
       <c r="G37" t="n">
-        <v>3524.106</v>
+        <v>3336.283993999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1940.8326</v>
+        <v>1981.303252</v>
       </c>
       <c r="I37" t="n">
-        <v>2.386654</v>
+        <v>2.29057</v>
       </c>
       <c r="J37" t="n">
-        <v>3475.7767</v>
+        <v>3314.8533</v>
       </c>
       <c r="K37" t="n">
-        <v>1891.2481</v>
+        <v>1938.96015</v>
       </c>
       <c r="L37" t="n">
-        <v>2.39185</v>
+        <v>2.30575</v>
       </c>
       <c r="M37" t="n">
-        <v>3524.106</v>
+        <v>3336.283993999999</v>
       </c>
       <c r="N37" t="n">
-        <v>1940.8326</v>
+        <v>1981.303252</v>
       </c>
       <c r="O37" t="n">
-        <v>2.386654</v>
+        <v>2.29057</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3646,13 +3646,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD37" t="n">
-        <v>149.8784143497255</v>
+        <v>216.8481764696428</v>
       </c>
       <c r="AE37" t="n">
-        <v>123.3721057960477</v>
+        <v>125.0611344791422</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.04153260507119677</v>
+        <v>0.06275597262412556</v>
       </c>
       <c r="AG37" t="n">
         <v>-999.25</v>
@@ -3664,13 +3664,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.9873751450796562</v>
+        <v>0.7686486370092116</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.3180340021184568</v>
+        <v>0.2196510636464898</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.2461683653360197</v>
+        <v>0.1163338668271429</v>
       </c>
       <c r="AM37" t="n">
         <v>-999.25</v>
@@ -3726,17 +3726,17 @@
       </c>
       <c r="BC37" t="inlineStr">
         <is>
-          <t>P velocity: vp_dry, S velocity: vs_dry, Density: rho_dry, Porosity: phie, Volume: vcl</t>
+          <t>P velocity: vp_sg08, S velocity: vs_sg08, Density: rho_sg08, Porosity: phie, Volume: vcl</t>
         </is>
       </c>
       <c r="BD37" s="1" t="n">
-        <v>45088.68662518923</v>
+        <v>45094.62744013961</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sand D_WELL_A_sand</t>
+          <t>Sand D_WELL_A_gas_sand</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3759,31 +3759,31 @@
         <v>-999.25</v>
       </c>
       <c r="G38" t="n">
-        <v>3524.106</v>
+        <v>3336.283994</v>
       </c>
       <c r="H38" t="n">
-        <v>1940.8326</v>
+        <v>1981.303252</v>
       </c>
       <c r="I38" t="n">
-        <v>2.386654</v>
+        <v>2.29057</v>
       </c>
       <c r="J38" t="n">
-        <v>3475.7767</v>
+        <v>3314.8533</v>
       </c>
       <c r="K38" t="n">
-        <v>1891.2481</v>
+        <v>1938.96015</v>
       </c>
       <c r="L38" t="n">
-        <v>2.39185</v>
+        <v>2.30575</v>
       </c>
       <c r="M38" t="n">
-        <v>3524.106</v>
+        <v>3336.283994</v>
       </c>
       <c r="N38" t="n">
-        <v>1940.8326</v>
+        <v>1981.303252</v>
       </c>
       <c r="O38" t="n">
-        <v>2.386654</v>
+        <v>2.29057</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -3830,13 +3830,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD38" t="n">
-        <v>149.8784143497255</v>
+        <v>216.8481764696428</v>
       </c>
       <c r="AE38" t="n">
-        <v>123.3721057960478</v>
+        <v>125.0611344791422</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.04153260507119678</v>
+        <v>0.06275597262412556</v>
       </c>
       <c r="AG38" t="n">
         <v>-999.25</v>
@@ -3848,13 +3848,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.9873751450796563</v>
+        <v>0.7686486370092114</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.3180340021184568</v>
+        <v>0.21965106364649</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.2461683653360198</v>
+        <v>0.116333866827143</v>
       </c>
       <c r="AM38" t="n">
         <v>-999.25</v>
@@ -3910,17 +3910,17 @@
       </c>
       <c r="BC38" t="inlineStr">
         <is>
-          <t>P velocity: vp_dry, S velocity: vs_dry, Density: rho_dry, Porosity: phie, Volume: vcl</t>
+          <t>P velocity: vp_sg08, S velocity: vs_sg08, Density: rho_sg08, Porosity: phie, Volume: vcl</t>
         </is>
       </c>
       <c r="BD38" s="1" t="n">
-        <v>45088.68662555831</v>
+        <v>45094.62744049744</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sand D_WELL_B_sand</t>
+          <t>Sand D_WELL_B_gas_sand</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4037,17 +4037,17 @@
       </c>
       <c r="BC39" t="inlineStr">
         <is>
-          <t>P velocity: vp_dry, S velocity: vs_dry, Density: rho_dry, Porosity: phie, Volume: vcl</t>
+          <t>P velocity: vp_sg08, S velocity: vs_sg08, Density: rho_sg08, Porosity: phie, Volume: vcl</t>
         </is>
       </c>
       <c r="BD39" s="1" t="n">
-        <v>45088.68662591647</v>
+        <v>45094.62744086684</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sand D_WELL_C_sand</t>
+          <t>Sand D_WELL_C_gas_sand</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4164,17 +4164,17 @@
       </c>
       <c r="BC40" t="inlineStr">
         <is>
-          <t>P velocity: vp_dry, S velocity: vs_dry, Density: rho_dry, Porosity: phie, Volume: vcl</t>
+          <t>P velocity: vp_sg08, S velocity: vs_sg08, Density: rho_sg08, Porosity: phie, Volume: vcl</t>
         </is>
       </c>
       <c r="BD40" s="1" t="n">
-        <v>45088.68662637785</v>
+        <v>45094.62744123589</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sand D_WELL_F_sand</t>
+          <t>Sand D_WELL_F_gas_sand</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4197,31 +4197,31 @@
         <v>-999.25</v>
       </c>
       <c r="G41" t="n">
-        <v>3524.106</v>
+        <v>3336.283994</v>
       </c>
       <c r="H41" t="n">
-        <v>1940.8326</v>
+        <v>1981.303252</v>
       </c>
       <c r="I41" t="n">
-        <v>2.386654</v>
+        <v>2.29057</v>
       </c>
       <c r="J41" t="n">
-        <v>3475.7767</v>
+        <v>3314.8533</v>
       </c>
       <c r="K41" t="n">
-        <v>1891.2481</v>
+        <v>1938.96015</v>
       </c>
       <c r="L41" t="n">
-        <v>2.39185</v>
+        <v>2.30575</v>
       </c>
       <c r="M41" t="n">
-        <v>3524.106</v>
+        <v>3336.283994</v>
       </c>
       <c r="N41" t="n">
-        <v>1940.8326</v>
+        <v>1981.303252</v>
       </c>
       <c r="O41" t="n">
-        <v>2.386654</v>
+        <v>2.29057</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4268,13 +4268,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD41" t="n">
-        <v>149.8784143497255</v>
+        <v>216.8481764696428</v>
       </c>
       <c r="AE41" t="n">
-        <v>123.3721057960478</v>
+        <v>125.0611344791422</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.04153260507119678</v>
+        <v>0.06275597262412556</v>
       </c>
       <c r="AG41" t="n">
         <v>-999.25</v>
@@ -4286,13 +4286,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.9873751450796563</v>
+        <v>0.7686486370092114</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.3180340021184568</v>
+        <v>0.21965106364649</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.2461683653360198</v>
+        <v>0.116333866827143</v>
       </c>
       <c r="AM41" t="n">
         <v>-999.25</v>
@@ -4348,17 +4348,17 @@
       </c>
       <c r="BC41" t="inlineStr">
         <is>
-          <t>P velocity: vp_dry, S velocity: vs_dry, Density: rho_dry, Porosity: phie, Volume: vcl</t>
+          <t>P velocity: vp_sg08, S velocity: vs_sg08, Density: rho_sg08, Porosity: phie, Volume: vcl</t>
         </is>
       </c>
       <c r="BD41" s="1" t="n">
-        <v>45088.68662674724</v>
+        <v>45094.62744161212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sand C_sand</t>
+          <t>Sand D_sand</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4381,31 +4381,31 @@
         <v>-999.25</v>
       </c>
       <c r="G42" t="n">
-        <v>3755.136456666666</v>
+        <v>3524.106</v>
       </c>
       <c r="H42" t="n">
-        <v>2119.672686666667</v>
+        <v>1940.8326</v>
       </c>
       <c r="I42" t="n">
-        <v>2.40192</v>
+        <v>2.386654</v>
       </c>
       <c r="J42" t="n">
-        <v>3756.27185</v>
+        <v>3475.7767</v>
       </c>
       <c r="K42" t="n">
-        <v>2110.4696</v>
+        <v>1891.2481</v>
       </c>
       <c r="L42" t="n">
-        <v>2.4076</v>
+        <v>2.39185</v>
       </c>
       <c r="M42" t="n">
-        <v>3755.136456666666</v>
+        <v>3524.106</v>
       </c>
       <c r="N42" t="n">
-        <v>2119.672686666667</v>
+        <v>1940.8326</v>
       </c>
       <c r="O42" t="n">
-        <v>2.40192</v>
+        <v>2.386654</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>0.12927</v>
+        <v>0.141292</v>
       </c>
       <c r="R42" t="n">
-        <v>0.02373603659698336</v>
+        <v>0.03245786708950544</v>
       </c>
       <c r="S42" t="n">
         <v>-999.25</v>
@@ -4452,13 +4452,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD42" t="n">
-        <v>149.3741329775222</v>
+        <v>149.8784143497255</v>
       </c>
       <c r="AE42" t="n">
-        <v>118.2049862775981</v>
+        <v>123.3721057960477</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.03299821611340022</v>
+        <v>0.04153260507119677</v>
       </c>
       <c r="AG42" t="n">
         <v>-999.25</v>
@@ -4470,13 +4470,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.9839221794982658</v>
+        <v>0.9873751450796562</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.6999848683685342</v>
+        <v>0.3180340021184568</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.6789134642337225</v>
+        <v>0.2461683653360197</v>
       </c>
       <c r="AM42" t="n">
         <v>-999.25</v>
@@ -4512,10 +4512,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.09925</v>
+        <v>0.1642</v>
       </c>
       <c r="AY42" t="n">
-        <v>0.06304343872812354</v>
+        <v>0.1296120796839554</v>
       </c>
       <c r="AZ42" t="inlineStr">
         <is>
@@ -4536,13 +4536,13 @@
         </is>
       </c>
       <c r="BD42" s="1" t="n">
-        <v>45088.68662827748</v>
+        <v>45094.62744320508</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sand C_WELL_A_sand</t>
+          <t>Sand D_WELL_A_sand</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4565,31 +4565,31 @@
         <v>-999.25</v>
       </c>
       <c r="G43" t="n">
-        <v>3755.136456666668</v>
+        <v>3524.106</v>
       </c>
       <c r="H43" t="n">
-        <v>2119.672686666667</v>
+        <v>1940.8326</v>
       </c>
       <c r="I43" t="n">
-        <v>2.40192</v>
+        <v>2.386654</v>
       </c>
       <c r="J43" t="n">
-        <v>3756.27185</v>
+        <v>3475.7767</v>
       </c>
       <c r="K43" t="n">
-        <v>2110.4696</v>
+        <v>1891.2481</v>
       </c>
       <c r="L43" t="n">
-        <v>2.4076</v>
+        <v>2.39185</v>
       </c>
       <c r="M43" t="n">
-        <v>3755.136456666668</v>
+        <v>3524.106</v>
       </c>
       <c r="N43" t="n">
-        <v>2119.672686666667</v>
+        <v>1940.8326</v>
       </c>
       <c r="O43" t="n">
-        <v>2.40192</v>
+        <v>2.386654</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4597,10 +4597,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>0.12927</v>
+        <v>0.141292</v>
       </c>
       <c r="R43" t="n">
-        <v>0.02373603659698336</v>
+        <v>0.03245786708950543</v>
       </c>
       <c r="S43" t="n">
         <v>-999.25</v>
@@ -4636,13 +4636,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD43" t="n">
-        <v>149.3741329775221</v>
+        <v>149.8784143497255</v>
       </c>
       <c r="AE43" t="n">
-        <v>118.2049862775981</v>
+        <v>123.3721057960478</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.03299821611340022</v>
+        <v>0.04153260507119678</v>
       </c>
       <c r="AG43" t="n">
         <v>-999.25</v>
@@ -4654,13 +4654,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.9839221794982655</v>
+        <v>0.9873751450796563</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.6999848683685344</v>
+        <v>0.3180340021184568</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.6789134642337223</v>
+        <v>0.2461683653360198</v>
       </c>
       <c r="AM43" t="n">
         <v>-999.25</v>
@@ -4696,10 +4696,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.09925</v>
+        <v>0.1642</v>
       </c>
       <c r="AY43" t="n">
-        <v>0.06304343872812354</v>
+        <v>0.1296120796839554</v>
       </c>
       <c r="AZ43" t="inlineStr">
         <is>
@@ -4720,13 +4720,13 @@
         </is>
       </c>
       <c r="BD43" s="1" t="n">
-        <v>45088.68662868215</v>
+        <v>45094.6274436091</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sand C_WELL_B_sand</t>
+          <t>Sand D_WELL_B_sand</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4847,13 +4847,13 @@
         </is>
       </c>
       <c r="BD44" s="1" t="n">
-        <v>45088.68662908648</v>
+        <v>45094.62744519018</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sand C_WELL_C_sand</t>
+          <t>Sand D_WELL_C_sand</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4974,13 +4974,13 @@
         </is>
       </c>
       <c r="BD45" s="1" t="n">
-        <v>45088.68662949017</v>
+        <v>45094.62744562882</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sand C_WELL_F_sand</t>
+          <t>Sand D_WELL_F_sand</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5003,31 +5003,31 @@
         <v>-999.25</v>
       </c>
       <c r="G46" t="n">
-        <v>3755.136456666668</v>
+        <v>3524.106</v>
       </c>
       <c r="H46" t="n">
-        <v>2119.672686666667</v>
+        <v>1940.8326</v>
       </c>
       <c r="I46" t="n">
-        <v>2.40192</v>
+        <v>2.386654</v>
       </c>
       <c r="J46" t="n">
-        <v>3756.27185</v>
+        <v>3475.7767</v>
       </c>
       <c r="K46" t="n">
-        <v>2110.4696</v>
+        <v>1891.2481</v>
       </c>
       <c r="L46" t="n">
-        <v>2.4076</v>
+        <v>2.39185</v>
       </c>
       <c r="M46" t="n">
-        <v>3755.136456666668</v>
+        <v>3524.106</v>
       </c>
       <c r="N46" t="n">
-        <v>2119.672686666667</v>
+        <v>1940.8326</v>
       </c>
       <c r="O46" t="n">
-        <v>2.40192</v>
+        <v>2.386654</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>0.12927</v>
+        <v>0.141292</v>
       </c>
       <c r="R46" t="n">
-        <v>0.02373603659698336</v>
+        <v>0.03245786708950543</v>
       </c>
       <c r="S46" t="n">
         <v>-999.25</v>
@@ -5074,13 +5074,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD46" t="n">
-        <v>149.3741329775221</v>
+        <v>149.8784143497255</v>
       </c>
       <c r="AE46" t="n">
-        <v>118.2049862775981</v>
+        <v>123.3721057960478</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.03299821611340022</v>
+        <v>0.04153260507119678</v>
       </c>
       <c r="AG46" t="n">
         <v>-999.25</v>
@@ -5092,13 +5092,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.9839221794982655</v>
+        <v>0.9873751450796563</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.6999848683685344</v>
+        <v>0.3180340021184568</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.6789134642337223</v>
+        <v>0.2461683653360198</v>
       </c>
       <c r="AM46" t="n">
         <v>-999.25</v>
@@ -5134,10 +5134,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.09925</v>
+        <v>0.1642</v>
       </c>
       <c r="AY46" t="n">
-        <v>0.06304343872812354</v>
+        <v>0.1296120796839554</v>
       </c>
       <c r="AZ46" t="inlineStr">
         <is>
@@ -5158,13 +5158,13 @@
         </is>
       </c>
       <c r="BD46" s="1" t="n">
-        <v>45088.68663022927</v>
+        <v>45094.62744609053</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Shale G_shale</t>
+          <t>Sand C_sand</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5187,31 +5187,31 @@
         <v>-999.25</v>
       </c>
       <c r="G47" t="n">
-        <v>3649.95292661157</v>
+        <v>3755.136456666666</v>
       </c>
       <c r="H47" t="n">
-        <v>1944.832221239669</v>
+        <v>2119.672686666667</v>
       </c>
       <c r="I47" t="n">
-        <v>2.609314462809917</v>
+        <v>2.40192</v>
       </c>
       <c r="J47" t="n">
-        <v>3566.50695</v>
+        <v>3756.27185</v>
       </c>
       <c r="K47" t="n">
-        <v>1882.3918</v>
+        <v>2110.4696</v>
       </c>
       <c r="L47" t="n">
-        <v>2.59765</v>
+        <v>2.4076</v>
       </c>
       <c r="M47" t="n">
-        <v>3649.95292661157</v>
+        <v>3755.136456666666</v>
       </c>
       <c r="N47" t="n">
-        <v>1944.832221239669</v>
+        <v>2119.672686666667</v>
       </c>
       <c r="O47" t="n">
-        <v>2.609314462809917</v>
+        <v>2.40192</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>0.0001726446280991736</v>
+        <v>0.12927</v>
       </c>
       <c r="R47" t="n">
-        <v>0.002187878805395592</v>
+        <v>0.02373603659698336</v>
       </c>
       <c r="S47" t="n">
         <v>-999.25</v>
@@ -5258,13 +5258,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD47" t="n">
-        <v>354.9528745764494</v>
+        <v>149.3741329775222</v>
       </c>
       <c r="AE47" t="n">
-        <v>274.4517878494811</v>
+        <v>118.2049862775981</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.111197252020645</v>
+        <v>0.03299821611340022</v>
       </c>
       <c r="AG47" t="n">
         <v>-999.25</v>
@@ -5276,13 +5276,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.9951779372935351</v>
+        <v>0.9839221794982658</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.7062142846773634</v>
+        <v>0.6999848683685342</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.6976703654649681</v>
+        <v>0.6789134642337225</v>
       </c>
       <c r="AM47" t="n">
         <v>-999.25</v>
@@ -5318,10 +5318,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.9544965289256199</v>
+        <v>0.09925</v>
       </c>
       <c r="AY47" t="n">
-        <v>0.0934412864905524</v>
+        <v>0.06304343872812354</v>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="BB47" t="inlineStr">
         <is>
-          <t>Volume&gt;0.50, Porosity&lt;0.10</t>
+          <t>Volume&lt;0.50, Porosity&gt;0.10</t>
         </is>
       </c>
       <c r="BC47" t="inlineStr">
@@ -5342,13 +5342,13 @@
         </is>
       </c>
       <c r="BD47" s="1" t="n">
-        <v>45088.68663189582</v>
+        <v>45094.62744785664</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Shale G_WELL_A_shale</t>
+          <t>Sand C_WELL_A_sand</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5371,31 +5371,31 @@
         <v>-999.25</v>
       </c>
       <c r="G48" t="n">
-        <v>3549.790709565218</v>
+        <v>3755.136456666668</v>
       </c>
       <c r="H48" t="n">
-        <v>1869.408675942029</v>
+        <v>2119.672686666667</v>
       </c>
       <c r="I48" t="n">
-        <v>2.583060289855073</v>
+        <v>2.40192</v>
       </c>
       <c r="J48" t="n">
-        <v>3509.2526</v>
+        <v>3756.27185</v>
       </c>
       <c r="K48" t="n">
-        <v>1833.6867</v>
+        <v>2110.4696</v>
       </c>
       <c r="L48" t="n">
-        <v>2.5861</v>
+        <v>2.4076</v>
       </c>
       <c r="M48" t="n">
-        <v>3549.790709565218</v>
+        <v>3755.136456666668</v>
       </c>
       <c r="N48" t="n">
-        <v>1869.408675942029</v>
+        <v>2119.672686666667</v>
       </c>
       <c r="O48" t="n">
-        <v>2.583060289855073</v>
+        <v>2.40192</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>0.0001</v>
+        <v>0.12927</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>0.02373603659698336</v>
       </c>
       <c r="S48" t="n">
         <v>-999.25</v>
@@ -5442,13 +5442,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD48" t="n">
-        <v>218.6481892062871</v>
+        <v>149.3741329775221</v>
       </c>
       <c r="AE48" t="n">
-        <v>175.1814363517952</v>
+        <v>118.2049862775981</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.1037778877619013</v>
+        <v>0.03299821611340022</v>
       </c>
       <c r="AG48" t="n">
         <v>-999.25</v>
@@ -5460,13 +5460,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.9993412119953305</v>
+        <v>0.9839221794982655</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.6332288648821379</v>
+        <v>0.6999848683685344</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.6277646954952111</v>
+        <v>0.6789134642337223</v>
       </c>
       <c r="AM48" t="n">
         <v>-999.25</v>
@@ -5502,10 +5502,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.9386649275362319</v>
+        <v>0.09925</v>
       </c>
       <c r="AY48" t="n">
-        <v>0.1050216229719452</v>
+        <v>0.06304343872812354</v>
       </c>
       <c r="AZ48" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="BB48" t="inlineStr">
         <is>
-          <t>Volume&gt;0.50, Porosity&lt;0.10</t>
+          <t>Volume&lt;0.50, Porosity&gt;0.10</t>
         </is>
       </c>
       <c r="BC48" t="inlineStr">
@@ -5526,13 +5526,13 @@
         </is>
       </c>
       <c r="BD48" s="1" t="n">
-        <v>45088.68663235756</v>
+        <v>45094.62744834147</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Shale G_WELL_B_shale</t>
+          <t>Sand C_WELL_B_sand</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5554,44 +5554,11 @@
       <c r="F49" t="n">
         <v>-999.25</v>
       </c>
-      <c r="G49" t="n">
-        <v>4140.808710169492</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2325.24731059322</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.700290254237289</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4117.5573</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2305.8287</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.66225</v>
-      </c>
-      <c r="M49" t="n">
-        <v>4140.808710169492</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2325.24731059322</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2.700290254237289</v>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="Q49" t="n">
-        <v>0.0005724576271186441</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.004925035909090577</v>
-      </c>
       <c r="S49" t="n">
         <v>-999.25</v>
       </c>
@@ -5625,15 +5592,6 @@
       <c r="AC49" t="n">
         <v>-999.25</v>
       </c>
-      <c r="AD49" t="n">
-        <v>322.6116949339128</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>255.597908985713</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0.09510369959263702</v>
-      </c>
       <c r="AG49" t="n">
         <v>-999.25</v>
       </c>
@@ -5643,15 +5601,6 @@
       <c r="AI49" t="n">
         <v>-999.25</v>
       </c>
-      <c r="AJ49" t="n">
-        <v>0.9992473065516616</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0.6100039813702253</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0.6138147724667646</v>
-      </c>
       <c r="AM49" t="n">
         <v>-999.25</v>
       </c>
@@ -5684,12 +5633,6 @@
       </c>
       <c r="AW49" t="n">
         <v>-999.25</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>0.9667436440677966</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>0.07306681410879294</v>
       </c>
       <c r="AZ49" t="inlineStr">
         <is>
@@ -5701,7 +5644,7 @@
       </c>
       <c r="BB49" t="inlineStr">
         <is>
-          <t>Volume&gt;0.50, Porosity&lt;0.10</t>
+          <t>Volume&lt;0.50, Porosity&gt;0.10</t>
         </is>
       </c>
       <c r="BC49" t="inlineStr">
@@ -5710,13 +5653,13 @@
         </is>
       </c>
       <c r="BD49" s="1" t="n">
-        <v>45088.68663280773</v>
+        <v>45094.62744882129</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Shale G_WELL_C_shale</t>
+          <t>Sand C_WELL_C_sand</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5738,44 +5681,11 @@
       <c r="F50" t="n">
         <v>-999.25</v>
       </c>
-      <c r="G50" t="n">
-        <v>3485.410549295775</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1811.959985915493</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.597501408450704</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3439.6922</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1820.8374</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.6005</v>
-      </c>
-      <c r="M50" t="n">
-        <v>3485.410549295775</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1811.959985915493</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2.597501408450704</v>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="Q50" t="n">
-        <v>1.690140845070423e-05</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.0002612191975199102</v>
-      </c>
       <c r="S50" t="n">
         <v>-999.25</v>
       </c>
@@ -5809,15 +5719,6 @@
       <c r="AC50" t="n">
         <v>-999.25</v>
       </c>
-      <c r="AD50" t="n">
-        <v>287.2113511131548</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>200.8486360503931</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0.1015232863636348</v>
-      </c>
       <c r="AG50" t="n">
         <v>-999.25</v>
       </c>
@@ -5827,15 +5728,6 @@
       <c r="AI50" t="n">
         <v>-999.25</v>
       </c>
-      <c r="AJ50" t="n">
-        <v>0.9741612704168434</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0.783857325781762</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0.7575806069329675</v>
-      </c>
       <c r="AM50" t="n">
         <v>-999.25</v>
       </c>
@@ -5868,12 +5760,6 @@
       </c>
       <c r="AW50" t="n">
         <v>-999.25</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0.9827834507042253</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0.06657963811884458</v>
       </c>
       <c r="AZ50" t="inlineStr">
         <is>
@@ -5885,7 +5771,7 @@
       </c>
       <c r="BB50" t="inlineStr">
         <is>
-          <t>Volume&gt;0.50, Porosity&lt;0.10</t>
+          <t>Volume&lt;0.50, Porosity&gt;0.10</t>
         </is>
       </c>
       <c r="BC50" t="inlineStr">
@@ -5894,13 +5780,13 @@
         </is>
       </c>
       <c r="BD50" s="1" t="n">
-        <v>45088.68663326947</v>
+        <v>45094.62744929425</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Shale G_WELL_F_shale</t>
+          <t>Sand C_WELL_F_sand</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5923,31 +5809,31 @@
         <v>-999.25</v>
       </c>
       <c r="G51" t="n">
-        <v>3549.790709565218</v>
+        <v>3755.136456666668</v>
       </c>
       <c r="H51" t="n">
-        <v>1869.408675942029</v>
+        <v>2119.672686666667</v>
       </c>
       <c r="I51" t="n">
-        <v>2.583060289855073</v>
+        <v>2.40192</v>
       </c>
       <c r="J51" t="n">
-        <v>3509.2526</v>
+        <v>3756.27185</v>
       </c>
       <c r="K51" t="n">
-        <v>1833.6867</v>
+        <v>2110.4696</v>
       </c>
       <c r="L51" t="n">
-        <v>2.5861</v>
+        <v>2.4076</v>
       </c>
       <c r="M51" t="n">
-        <v>3549.790709565218</v>
+        <v>3755.136456666668</v>
       </c>
       <c r="N51" t="n">
-        <v>1869.408675942029</v>
+        <v>2119.672686666667</v>
       </c>
       <c r="O51" t="n">
-        <v>2.583060289855073</v>
+        <v>2.40192</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -5955,10 +5841,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>0.0001</v>
+        <v>0.12927</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>0.02373603659698336</v>
       </c>
       <c r="S51" t="n">
         <v>-999.25</v>
@@ -5994,13 +5880,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD51" t="n">
-        <v>218.6481892062871</v>
+        <v>149.3741329775221</v>
       </c>
       <c r="AE51" t="n">
-        <v>175.1814363517952</v>
+        <v>118.2049862775981</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.1037778877619013</v>
+        <v>0.03299821611340022</v>
       </c>
       <c r="AG51" t="n">
         <v>-999.25</v>
@@ -6012,13 +5898,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.9993412119953305</v>
+        <v>0.9839221794982655</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.6332288648821379</v>
+        <v>0.6999848683685344</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.6277646954952111</v>
+        <v>0.6789134642337223</v>
       </c>
       <c r="AM51" t="n">
         <v>-999.25</v>
@@ -6054,10 +5940,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.9386649275362319</v>
+        <v>0.09925</v>
       </c>
       <c r="AY51" t="n">
-        <v>0.1050216229719452</v>
+        <v>0.06304343872812354</v>
       </c>
       <c r="AZ51" t="inlineStr">
         <is>
@@ -6069,7 +5955,7 @@
       </c>
       <c r="BB51" t="inlineStr">
         <is>
-          <t>Volume&gt;0.50, Porosity&lt;0.10</t>
+          <t>Volume&lt;0.50, Porosity&gt;0.10</t>
         </is>
       </c>
       <c r="BC51" t="inlineStr">
@@ -6078,13 +5964,13 @@
         </is>
       </c>
       <c r="BD51" s="1" t="n">
-        <v>45088.6866337543</v>
+        <v>45094.62744979094</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Shale C_shale</t>
+          <t>Shale G_shale</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6107,31 +5993,31 @@
         <v>-999.25</v>
       </c>
       <c r="G52" t="n">
-        <v>3163.055718327606</v>
+        <v>3649.95292661157</v>
       </c>
       <c r="H52" t="n">
-        <v>1573.329663096602</v>
+        <v>1944.832221239669</v>
       </c>
       <c r="I52" t="n">
-        <v>2.40301795532646</v>
+        <v>2.609314462809917</v>
       </c>
       <c r="J52" t="n">
-        <v>3013.88265</v>
+        <v>3566.50695</v>
       </c>
       <c r="K52" t="n">
-        <v>1452.70425</v>
+        <v>1882.3918</v>
       </c>
       <c r="L52" t="n">
-        <v>2.4485</v>
+        <v>2.59765</v>
       </c>
       <c r="M52" t="n">
-        <v>3163.055718327606</v>
+        <v>3649.95292661157</v>
       </c>
       <c r="N52" t="n">
-        <v>1573.329663096602</v>
+        <v>1944.832221239669</v>
       </c>
       <c r="O52" t="n">
-        <v>2.40301795532646</v>
+        <v>2.609314462809917</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -6139,10 +6025,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>0.004660853379152349</v>
+        <v>0.0001726446280991736</v>
       </c>
       <c r="R52" t="n">
-        <v>0.01385744436796014</v>
+        <v>0.002187878805395592</v>
       </c>
       <c r="S52" t="n">
         <v>-999.25</v>
@@ -6178,13 +6064,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD52" t="n">
-        <v>473.2703234836508</v>
+        <v>354.9528745764494</v>
       </c>
       <c r="AE52" t="n">
-        <v>371.9587888261526</v>
+        <v>274.4517878494811</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.1638079430673938</v>
+        <v>0.111197252020645</v>
       </c>
       <c r="AG52" t="n">
         <v>-999.25</v>
@@ -6196,13 +6082,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.9994759320462488</v>
+        <v>0.9951779372935351</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.5397811785910773</v>
+        <v>0.7062142846773634</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.5379677865871745</v>
+        <v>0.6976703654649681</v>
       </c>
       <c r="AM52" t="n">
         <v>-999.25</v>
@@ -6238,10 +6124,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.9636410366552118</v>
+        <v>0.9544965289256199</v>
       </c>
       <c r="AY52" t="n">
-        <v>0.08364739183946303</v>
+        <v>0.0934412864905524</v>
       </c>
       <c r="AZ52" t="inlineStr">
         <is>
@@ -6262,13 +6148,13 @@
         </is>
       </c>
       <c r="BD52" s="1" t="n">
-        <v>45088.6866355303</v>
+        <v>45094.62745156111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Shale C_WELL_A_shale</t>
+          <t>Shale G_WELL_A_shale</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6291,31 +6177,31 @@
         <v>-999.25</v>
       </c>
       <c r="G53" t="n">
-        <v>3686.788070734996</v>
+        <v>3549.790709565218</v>
       </c>
       <c r="H53" t="n">
-        <v>1978.176026770061</v>
+        <v>1869.408675942029</v>
       </c>
       <c r="I53" t="n">
-        <v>2.441574376264329</v>
+        <v>2.583060289855073</v>
       </c>
       <c r="J53" t="n">
-        <v>3680.7465</v>
+        <v>3509.2526</v>
       </c>
       <c r="K53" t="n">
-        <v>1972.5727</v>
+        <v>1833.6867</v>
       </c>
       <c r="L53" t="n">
-        <v>2.4415</v>
+        <v>2.5861</v>
       </c>
       <c r="M53" t="n">
-        <v>3686.788070734996</v>
+        <v>3549.790709565218</v>
       </c>
       <c r="N53" t="n">
-        <v>1978.176026770061</v>
+        <v>1869.408675942029</v>
       </c>
       <c r="O53" t="n">
-        <v>2.441574376264329</v>
+        <v>2.583060289855073</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -6323,10 +6209,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>0.002043560350640594</v>
+        <v>0.0001</v>
       </c>
       <c r="R53" t="n">
-        <v>0.005519793721246933</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>-999.25</v>
@@ -6362,13 +6248,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD53" t="n">
-        <v>110.1471622397328</v>
+        <v>218.6481892062871</v>
       </c>
       <c r="AE53" t="n">
-        <v>86.74833432858864</v>
+        <v>175.1814363517952</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.03130852891256541</v>
+        <v>0.1037778877619013</v>
       </c>
       <c r="AG53" t="n">
         <v>-999.25</v>
@@ -6380,13 +6266,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.9955665540985145</v>
+        <v>0.9993412119953305</v>
       </c>
       <c r="AK53" t="n">
-        <v>0.5259027492984856</v>
+        <v>0.6332288648821379</v>
       </c>
       <c r="AL53" t="n">
-        <v>0.5013206152160474</v>
+        <v>0.6277646954952111</v>
       </c>
       <c r="AM53" t="n">
         <v>-999.25</v>
@@ -6422,10 +6308,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX53" t="n">
-        <v>0.968605259608901</v>
+        <v>0.9386649275362319</v>
       </c>
       <c r="AY53" t="n">
-        <v>0.05312736803797691</v>
+        <v>0.1050216229719452</v>
       </c>
       <c r="AZ53" t="inlineStr">
         <is>
@@ -6446,13 +6332,13 @@
         </is>
       </c>
       <c r="BD53" s="1" t="n">
-        <v>45088.68663603815</v>
+        <v>45094.62745208057</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Shale C_WELL_B_shale</t>
+          <t>Shale G_WELL_B_shale</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6475,31 +6361,31 @@
         <v>-999.25</v>
       </c>
       <c r="G54" t="n">
-        <v>3806.933029338447</v>
+        <v>4140.808710169492</v>
       </c>
       <c r="H54" t="n">
-        <v>2099.450657813998</v>
+        <v>2325.24731059322</v>
       </c>
       <c r="I54" t="n">
-        <v>2.537690028763183</v>
+        <v>2.700290254237289</v>
       </c>
       <c r="J54" t="n">
-        <v>3795.8142</v>
+        <v>4117.5573</v>
       </c>
       <c r="K54" t="n">
-        <v>2090.7253</v>
+        <v>2305.8287</v>
       </c>
       <c r="L54" t="n">
-        <v>2.5349</v>
+        <v>2.66225</v>
       </c>
       <c r="M54" t="n">
-        <v>3806.933029338447</v>
+        <v>4140.808710169492</v>
       </c>
       <c r="N54" t="n">
-        <v>2099.450657813998</v>
+        <v>2325.24731059322</v>
       </c>
       <c r="O54" t="n">
-        <v>2.537690028763183</v>
+        <v>2.700290254237289</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -6507,10 +6393,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>0.04063691275167786</v>
+        <v>0.0005724576271186441</v>
       </c>
       <c r="R54" t="n">
-        <v>0.01961128407198568</v>
+        <v>0.004925035909090577</v>
       </c>
       <c r="S54" t="n">
         <v>-999.25</v>
@@ -6546,13 +6432,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD54" t="n">
-        <v>80.16715114656684</v>
+        <v>322.6116949339128</v>
       </c>
       <c r="AE54" t="n">
-        <v>64.88812555125625</v>
+        <v>255.597908985713</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.04036338292333129</v>
+        <v>0.09510369959263702</v>
       </c>
       <c r="AG54" t="n">
         <v>-999.25</v>
@@ -6564,13 +6450,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0.9957345853859619</v>
+        <v>0.9992473065516616</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.4769134167430919</v>
+        <v>0.6100039813702253</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.4709445985861821</v>
+        <v>0.6138147724667646</v>
       </c>
       <c r="AM54" t="n">
         <v>-999.25</v>
@@ -6606,10 +6492,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX54" t="n">
-        <v>0.7371827420901247</v>
+        <v>0.9667436440677966</v>
       </c>
       <c r="AY54" t="n">
-        <v>0.04489318023058025</v>
+        <v>0.07306681410879294</v>
       </c>
       <c r="AZ54" t="inlineStr">
         <is>
@@ -6630,13 +6516,13 @@
         </is>
       </c>
       <c r="BD54" s="1" t="n">
-        <v>45088.68663654607</v>
+        <v>45094.62745258845</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Shale C_WELL_C_shale</t>
+          <t>Shale G_WELL_C_shale</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6659,31 +6545,31 @@
         <v>-999.25</v>
       </c>
       <c r="G55" t="n">
-        <v>2819.008371393227</v>
+        <v>3485.410549295775</v>
       </c>
       <c r="H55" t="n">
-        <v>1302.799508133602</v>
+        <v>1811.959985915493</v>
       </c>
       <c r="I55" t="n">
-        <v>2.363614628111953</v>
+        <v>2.597501408450704</v>
       </c>
       <c r="J55" t="n">
-        <v>2828.7648</v>
+        <v>3439.6922</v>
       </c>
       <c r="K55" t="n">
-        <v>1309.8955</v>
+        <v>1820.8374</v>
       </c>
       <c r="L55" t="n">
-        <v>2.4443</v>
+        <v>2.6005</v>
       </c>
       <c r="M55" t="n">
-        <v>2819.008371393227</v>
+        <v>3485.410549295775</v>
       </c>
       <c r="N55" t="n">
-        <v>1302.799508133602</v>
+        <v>1811.959985915493</v>
       </c>
       <c r="O55" t="n">
-        <v>2.363614628111953</v>
+        <v>2.597501408450704</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -6691,10 +6577,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>5.900726766661513e-05</v>
+        <v>1.690140845070423e-05</v>
       </c>
       <c r="R55" t="n">
-        <v>0.001416967516361745</v>
+        <v>0.0002612191975199102</v>
       </c>
       <c r="S55" t="n">
         <v>-999.25</v>
@@ -6730,13 +6616,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD55" t="n">
-        <v>212.6077993980195</v>
+        <v>287.2113511131548</v>
       </c>
       <c r="AE55" t="n">
-        <v>164.2869536166351</v>
+        <v>200.8486360503931</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.1938954919759469</v>
+        <v>0.1015232863636348</v>
       </c>
       <c r="AG55" t="n">
         <v>-999.25</v>
@@ -6748,13 +6634,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.9981018932329678</v>
+        <v>0.9741612704168434</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.7254239571860767</v>
+        <v>0.783857325781762</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.7229278622695773</v>
+        <v>0.7575806069329675</v>
       </c>
       <c r="AM55" t="n">
         <v>-999.25</v>
@@ -6790,10 +6676,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX55" t="n">
-        <v>0.9978875367249112</v>
+        <v>0.9827834507042253</v>
       </c>
       <c r="AY55" t="n">
-        <v>0.01611507863183885</v>
+        <v>0.06657963811884458</v>
       </c>
       <c r="AZ55" t="inlineStr">
         <is>
@@ -6814,13 +6700,13 @@
         </is>
       </c>
       <c r="BD55" s="1" t="n">
-        <v>45088.68663712233</v>
+        <v>45094.62745313098</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Shale C_WELL_F_shale</t>
+          <t>Shale G_WELL_F_shale</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6843,31 +6729,31 @@
         <v>-999.25</v>
       </c>
       <c r="G56" t="n">
-        <v>3686.788070734996</v>
+        <v>3549.790709565218</v>
       </c>
       <c r="H56" t="n">
-        <v>1978.176026770061</v>
+        <v>1869.408675942029</v>
       </c>
       <c r="I56" t="n">
-        <v>2.441574376264329</v>
+        <v>2.583060289855073</v>
       </c>
       <c r="J56" t="n">
-        <v>3680.7465</v>
+        <v>3509.2526</v>
       </c>
       <c r="K56" t="n">
-        <v>1972.5727</v>
+        <v>1833.6867</v>
       </c>
       <c r="L56" t="n">
-        <v>2.4415</v>
+        <v>2.5861</v>
       </c>
       <c r="M56" t="n">
-        <v>3686.788070734996</v>
+        <v>3549.790709565218</v>
       </c>
       <c r="N56" t="n">
-        <v>1978.176026770061</v>
+        <v>1869.408675942029</v>
       </c>
       <c r="O56" t="n">
-        <v>2.441574376264329</v>
+        <v>2.583060289855073</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -6875,10 +6761,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>0.002043560350640594</v>
+        <v>0.0001</v>
       </c>
       <c r="R56" t="n">
-        <v>0.005519793721246933</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
         <v>-999.25</v>
@@ -6914,13 +6800,13 @@
         <v>-999.25</v>
       </c>
       <c r="AD56" t="n">
-        <v>110.1471622397328</v>
+        <v>218.6481892062871</v>
       </c>
       <c r="AE56" t="n">
-        <v>86.74833432858864</v>
+        <v>175.1814363517952</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.03130852891256541</v>
+        <v>0.1037778877619013</v>
       </c>
       <c r="AG56" t="n">
         <v>-999.25</v>
@@ -6932,13 +6818,13 @@
         <v>-999.25</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.9955665540985145</v>
+        <v>0.9993412119953305</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.5259027492984856</v>
+        <v>0.6332288648821379</v>
       </c>
       <c r="AL56" t="n">
-        <v>0.5013206152160474</v>
+        <v>0.6277646954952111</v>
       </c>
       <c r="AM56" t="n">
         <v>-999.25</v>
@@ -6974,10 +6860,10 @@
         <v>-999.25</v>
       </c>
       <c r="AX56" t="n">
-        <v>0.968605259608901</v>
+        <v>0.9386649275362319</v>
       </c>
       <c r="AY56" t="n">
-        <v>0.05312736803797691</v>
+        <v>0.1050216229719452</v>
       </c>
       <c r="AZ56" t="inlineStr">
         <is>
@@ -6998,7 +6884,927 @@
         </is>
       </c>
       <c r="BD56" s="1" t="n">
-        <v>45088.68663765322</v>
+        <v>45094.62745367493</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Shale C_shale</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3163.055718327606</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1573.329663096602</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.40301795532646</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3013.88265</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1452.70425</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.4485</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3163.055718327606</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1573.329663096602</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.40301795532646</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.004660853379152349</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.01385744436796014</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>473.2703234836508</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>371.9587888261526</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.1638079430673938</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0.9994759320462488</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.5397811785910773</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0.5379677865871745</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0.9636410366552118</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0.08364739183946303</v>
+      </c>
+      <c r="AZ57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="inlineStr">
+        <is>
+          <t>Volume&gt;0.50, Porosity&lt;0.10</t>
+        </is>
+      </c>
+      <c r="BC57" t="inlineStr">
+        <is>
+          <t>P velocity: vp_dry, S velocity: vs_dry, Density: rho_dry, Porosity: phie, Volume: vcl</t>
+        </is>
+      </c>
+      <c r="BD57" s="1" t="n">
+        <v>45094.62745553641</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Shale C_WELL_A_shale</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3686.788070734996</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1978.176026770061</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.441574376264329</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3680.7465</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1972.5727</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.4415</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3686.788070734996</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1978.176026770061</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2.441574376264329</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.002043560350640594</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.005519793721246933</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>110.1471622397328</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>86.74833432858864</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.03130852891256541</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.9955665540985145</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.5259027492984856</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0.5013206152160474</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0.968605259608901</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.05312736803797691</v>
+      </c>
+      <c r="AZ58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB58" t="inlineStr">
+        <is>
+          <t>Volume&gt;0.50, Porosity&lt;0.10</t>
+        </is>
+      </c>
+      <c r="BC58" t="inlineStr">
+        <is>
+          <t>P velocity: vp_dry, S velocity: vs_dry, Density: rho_dry, Porosity: phie, Volume: vcl</t>
+        </is>
+      </c>
+      <c r="BD58" s="1" t="n">
+        <v>45094.62745610388</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Shale C_WELL_B_shale</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3806.933029338447</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2099.450657813998</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.537690028763183</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3795.8142</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2090.7253</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.5349</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3806.933029338447</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2099.450657813998</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.537690028763183</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.04063691275167786</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.01961128407198568</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>80.16715114656684</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>64.88812555125625</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.04036338292333129</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0.9957345853859619</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.4769134167430919</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0.4709445985861821</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0.7371827420901247</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.04489318023058025</v>
+      </c>
+      <c r="AZ59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB59" t="inlineStr">
+        <is>
+          <t>Volume&gt;0.50, Porosity&lt;0.10</t>
+        </is>
+      </c>
+      <c r="BC59" t="inlineStr">
+        <is>
+          <t>P velocity: vp_dry, S velocity: vs_dry, Density: rho_dry, Porosity: phie, Volume: vcl</t>
+        </is>
+      </c>
+      <c r="BD59" s="1" t="n">
+        <v>45094.62745669258</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Shale C_WELL_C_shale</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2819.008371393227</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1302.799508133602</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.363614628111953</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2828.7648</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1309.8955</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2.4443</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2819.008371393227</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1302.799508133602</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2.363614628111953</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>5.900726766661513e-05</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.001416967516361745</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>212.6077993980195</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>164.2869536166351</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0.1938954919759469</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0.9981018932329678</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.7254239571860767</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0.7229278622695773</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0.9978875367249112</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.01611507863183885</v>
+      </c>
+      <c r="AZ60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB60" t="inlineStr">
+        <is>
+          <t>Volume&gt;0.50, Porosity&lt;0.10</t>
+        </is>
+      </c>
+      <c r="BC60" t="inlineStr">
+        <is>
+          <t>P velocity: vp_dry, S velocity: vs_dry, Density: rho_dry, Porosity: phie, Volume: vcl</t>
+        </is>
+      </c>
+      <c r="BD60" s="1" t="n">
+        <v>45094.62745730436</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Shale C_WELL_F_shale</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3686.788070734996</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1978.176026770061</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.441574376264329</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3680.7465</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1972.5727</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.4415</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3686.788070734996</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1978.176026770061</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.441574376264329</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.002043560350640594</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.005519793721246933</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="W61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="X61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>110.1471622397328</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>86.74833432858864</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.03130852891256541</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.9955665540985145</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.5259027492984856</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.5013206152160474</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>-999.25</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0.968605259608901</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.05312736803797691</v>
+      </c>
+      <c r="AZ61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB61" t="inlineStr">
+        <is>
+          <t>Volume&gt;0.50, Porosity&lt;0.10</t>
+        </is>
+      </c>
+      <c r="BC61" t="inlineStr">
+        <is>
+          <t>P velocity: vp_dry, S velocity: vs_dry, Density: rho_dry, Porosity: phie, Volume: vcl</t>
+        </is>
+      </c>
+      <c r="BD61" s="1" t="n">
+        <v>45094.62745789922</v>
       </c>
     </row>
   </sheetData>
